--- a/biology/Botanique/Musella_lasiocarpa/Musella_lasiocarpa.xlsx
+++ b/biology/Botanique/Musella_lasiocarpa/Musella_lasiocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Musella lasiocarpa
 Le Lotus d'or (Musella lasiocarpa), ou Muselle, est une espèce de plante de la famille des Musacées. Originaire du sud-ouest de la Chine, cette plante en danger d'extinction est utilisée par les populations locales comme plante médicinale, alimentaire et pour la fabrication de cordes.
@@ -514,16 +526,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description de l'espèce
-C'est une plante de petite taille, la pseudo-tige (constituée des gaines des feuilles) mesure entre 30 et 80 cm de haut[2], maximum 1m ou 1,2 m[3].
-L'inflorescence se développe principalement au sommet de la tige[4] plus rarement de manière latérale[3], les bractées florales, de couleur jaune, orange ou rougeâtre, se maintiennent pendant plusieurs mois[4], donnant à l'ensemble l'apparence d'une fleur de lotus.
-Les feuilles sont glauques, étroitement elliptiques, à apex pointu[4].
+          <t>Description de l'espèce</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante de petite taille, la pseudo-tige (constituée des gaines des feuilles) mesure entre 30 et 80 cm de haut, maximum 1m ou 1,2 m.
+L'inflorescence se développe principalement au sommet de la tige plus rarement de manière latérale, les bractées florales, de couleur jaune, orange ou rougeâtre, se maintiennent pendant plusieurs mois, donnant à l'ensemble l'apparence d'une fleur de lotus.
+Les feuilles sont glauques, étroitement elliptiques, à apex pointu.
 La plante est monoïque : elle présente des fleurs femelles distinctes des fleurs mâles.
-Les fruits sont de toute petite taille (jusqu'à 3 cm), ovoïdes à trigones, non charnus et pubescents[4].
-La plante se reproduit par ses rhizomes ou par ses graines[4]. Les fleurs sont pollinisées par des insectes, notamment des bourdons, abeilles et guêpes[5].
-Distinction avec les espèces proches
-L'espèce est suffisamment originale au sein de sa famille pour ne pas prêter à confusion. Le genre Musella est monotypique[6].
-On peut cependant indiquer que l'espèce se distingue[4] du genre Ensete par son caractère de plante pérenne, sa pseudo-tige non ou très faiblement renflée à la base et ses bractées colorées (et non vertes) ; et du genre Musa par sa pseudo-tige de moins de 60 cm, son inflorescence conique et dense, et ses bractées persistantes.
+Les fruits sont de toute petite taille (jusqu'à 3 cm), ovoïdes à trigones, non charnus et pubescents.
+La plante se reproduit par ses rhizomes ou par ses graines. Les fleurs sont pollinisées par des insectes, notamment des bourdons, abeilles et guêpes.
 </t>
         </is>
       </c>
@@ -549,114 +563,513 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Distinction avec les espèces proches</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est suffisamment originale au sein de sa famille pour ne pas prêter à confusion. Le genre Musella est monotypique.
+On peut cependant indiquer que l'espèce se distingue du genre Ensete par son caractère de plante pérenne, sa pseudo-tige non ou très faiblement renflée à la base et ses bractées colorées (et non vertes) ; et du genre Musa par sa pseudo-tige de moins de 60 cm, son inflorescence conique et dense, et ses bractées persistantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie et classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit de l'unique espèce du genre Musella[7],[8].
-L'espèce a d'abord été décrite en 1889 par M.A. Franchet[9] qui la place dans le genre Musa mais crée la section Musella spécialement pour elle[7].
-Cheesman en 1947 considère la section Musella de Franchet comme relevant du genre Ensete[7],[10].
-Ce n'est qu'en 1978 que C.Y. Wu (in H.W. Li)[11] reconnaît Musella comme un genre à part entière[7].
-En 2002[3] puis 2004[12] R.V. Valmayor et D.D. Lê proposent une nouvelle espèce de Musella : Musella splendida. Mais leur co-auteur de 2004, M. Häkkinen ne considère finalement (en 2008) ce nom que comme un synonyme de Ensete lasiocarpum[8].
-Une variété à bractées orange-rougeâtre à rouges (var. rubribracteata) a été décrite en 2011[13]. Elle se distingue de la variété type par la couleur des bractées mais aussi celle de la face inférieure de son pétiole et de sa nervure centrale, également rouge.
-Synonymes
-D'après le site Plants of the World Online[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de l'unique espèce du genre Musella,.
+L'espèce a d'abord été décrite en 1889 par M.A. Franchet qui la place dans le genre Musa mais crée la section Musella spécialement pour elle.
+Cheesman en 1947 considère la section Musella de Franchet comme relevant du genre Ensete,.
+Ce n'est qu'en 1978 que C.Y. Wu (in H.W. Li) reconnaît Musella comme un genre à part entière.
+En 2002 puis 2004 R.V. Valmayor et D.D. Lê proposent une nouvelle espèce de Musella : Musella splendida. Mais leur co-auteur de 2004, M. Häkkinen ne considère finalement (en 2008) ce nom que comme un synonyme de Ensete lasiocarpum.
+Une variété à bractées orange-rougeâtre à rouges (var. rubribracteata) a été décrite en 2011. Elle se distingue de la variété type par la couleur des bractées mais aussi celle de la face inférieure de son pétiole et de sa nervure centrale, également rouge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie et classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après le site Plants of the World Online :
 Ensete lasiocarpum (Franch.) Cheesman
 Musa lasiocarpa Franch.
 Musella lasiocarpa var. rubribracteata Zheng H.Li &amp; H.Ma
 Musella splendida R.V.Valmayor &amp; D.D.Lê
-Musa splendida Chevalier
-Étymologie
-Le nom "Bananier des rochers" est donné comme la traduction du nom chinois de l'espèce cité par Franchet : « ngay tsiao »[9],[14].
+Musa splendida Chevalier</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie et classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom "Bananier des rochers" est donné comme la traduction du nom chinois de l'espèce cité par Franchet : « ngay tsiao »,.
 L'épithète spécifique lasiocarpa peut être décomposé sur la base des éthymons grecs anciens : λάσιος, (lásios) : « velu, laineux » et καρπός, (karpós) : « fruit », décliné au féminin en accord avec le nom générique Musella. En effet, le fruit (de très petite taille) est pubescent.
-Le nom Muselle est utilisé par André Lassoudière en 2010[15].
-Noms dans d'autres langues
-Anglais : Golden lotus banana (« bananier lotus doré »), Chinese dwarf banana (« bananier chinois nain »)
-Chinois (pinyin) : 地涌金莲 (di yong jin lian[16] : « lotus doré s'élevant du sol »[14])
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Musella_lasiocarpa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Musella_lasiocarpa</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Le nom Muselle est utilisé par André Lassoudière en 2010.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie et classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Noms dans d'autres langues</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anglais : Golden lotus banana (« bananier lotus doré »), Chinese dwarf banana (« bananier chinois nain »)
+Chinois (pinyin) : 地涌金莲 (di yong jin lian : « lotus doré s'élevant du sol »)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Origine et distribution
-Plante originaire du sud-ouest de la Chine (sud de la province du Guizhou, centre et ouest de la province du Yunnan), entre 1500 et 2500 m d'altitude[2]. Elle est ou aurait également été présente au Viet-Nam[2],[3], néanmoins l'évaluation de 2022 par l'UICN ne signale des populations sauvages plus que dans le nord du Yunnan (entre Lijiang et Kunming). Elle peut donc être considérée comme endémique du sud-ouest de la Chine[14].
-Habitat
-En rapprochant la carte de distribution de l'espèce avec la carte des biomes du monde, on constate que le Lotus d'or croît dans l'écorégion des forêts subtropicales[2] des plateaux du Yunnan qui sont des forêts d'arbres à feuilles persistantes, avec notamment des espèces appartenant aux familles des Fagacées, Théacées et des Lauracées (les plus dominantes), mais aussi aux Anacardiacées, Euphorbiacées, Rubiacées, Oléacées, Betulacées, Symplococacées, Aquifoliacées, Magnoliacées et Berbéridacées[17].
-Malgré l'adjectif « subtropical » utilisé pour décrire l'écorégion (laquelle n'est pertinente qu'à large échelle), l'évaluation de l'UICN précise que cette plante croît dans des milieux montagneux plutôt secs et froids, parfois même en situation de falaises[1].
-Impact des humains sur les populations sauvages
-Un temps pensée disparue à l'état sauvage[14], un petit nombre de populations ont été (re)découvertes entre 2004 et 2019 dans le nord du Yunnan[18].
-Malgré cette situation difficile, le Lotus d'or est largement cultivé ou toléré dans les agroécosystèmes pour ses divers usages, notamment comme fourrage et comme matière première pour tresser des cordes[14].
-L'agriculture est donc principalement un facteur de risque pour l'espèce, en conduisant à la destruction de ses habitats naturels[14]. Le maintien de la plante dans les agroécosystèmes ne dépend plus d'un équilibre naturel mais seulement du bon vouloir et d'une priorisation d'intérêts de la part des populations humaines qui gèrent ces espaces.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Musella_lasiocarpa</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Musella_lasiocarpa</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Origine et distribution</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante originaire du sud-ouest de la Chine (sud de la province du Guizhou, centre et ouest de la province du Yunnan), entre 1500 et 2500 m d'altitude. Elle est ou aurait également été présente au Viet-Nam néanmoins l'évaluation de 2022 par l'UICN ne signale des populations sauvages plus que dans le nord du Yunnan (entre Lijiang et Kunming). Elle peut donc être considérée comme endémique du sud-ouest de la Chine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En rapprochant la carte de distribution de l'espèce avec la carte des biomes du monde, on constate que le Lotus d'or croît dans l'écorégion des forêts subtropicales des plateaux du Yunnan qui sont des forêts d'arbres à feuilles persistantes, avec notamment des espèces appartenant aux familles des Fagacées, Théacées et des Lauracées (les plus dominantes), mais aussi aux Anacardiacées, Euphorbiacées, Rubiacées, Oléacées, Betulacées, Symplococacées, Aquifoliacées, Magnoliacées et Berbéridacées.
+Malgré l'adjectif « subtropical » utilisé pour décrire l'écorégion (laquelle n'est pertinente qu'à large échelle), l'évaluation de l'UICN précise que cette plante croît dans des milieux montagneux plutôt secs et froids, parfois même en situation de falaises.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Impact des humains sur les populations sauvages</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un temps pensée disparue à l'état sauvage, un petit nombre de populations ont été (re)découvertes entre 2004 et 2019 dans le nord du Yunnan.
+Malgré cette situation difficile, le Lotus d'or est largement cultivé ou toléré dans les agroécosystèmes pour ses divers usages, notamment comme fourrage et comme matière première pour tresser des cordes.
+L'agriculture est donc principalement un facteur de risque pour l'espèce, en conduisant à la destruction de ses habitats naturels. Le maintien de la plante dans les agroécosystèmes ne dépend plus d'un équilibre naturel mais seulement du bon vouloir et d'une priorisation d'intérêts de la part des populations humaines qui gèrent ces espaces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Usages et aspects culturels</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Usages médicinaux
-Les fleurs fraîches et les bractées sont utilisées en emplâtre comme hémostatique (pour stopper les saignements) et comme anti-inflammatoire[14].
-L'inflorescence (fleurs, bractée et bourgeon apical) est utilisée en infusion contre les irritations de l'estomac, la constipation et les « maladies féminines »[14].
-La sève est utilisée en interne comme anti-poison (contre l'Aconit) et pour apaiser la gueule-de-bois[14].
-Alimentation
-La partie interne de la pseudo-tige est comestible (après épluchage des gaines foliaires), elle peut-être bouillie ou mise en pickles dans du vinaigre. La pseudo-tige peut être coupée en tranches et séchée pour la conservation. Elle contient, tout comme les rhizomes, de l'amidon et peut être utilisée pour la confection de vin (usage rare)[14].
-Fourrage
-La plante est utilisée comme fourrage pour les porcs[14].
-Technologie
-Les fibres de la nervure centrale des feuilles sont utilisées pour tresser des cordes, des ceintures et pour confectionner des chaises[14].
-Plante ornementale
-Appréciée comme plante d'ornement[14],[19], elle est commercialisée et donc potentiellement présente un peu partout dans le monde.
-Aspects religieux
-Du fait de la ressemblance de la fleur au lotus et de sa longue durée de floraison, la plante serait sacrée pour les moines bouddhistes de la région du Yunnan[2] ainsi que pour les ethnies Dai et Bulang[15].
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Usages médicinaux</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs fraîches et les bractées sont utilisées en emplâtre comme hémostatique (pour stopper les saignements) et comme anti-inflammatoire.
+L'inflorescence (fleurs, bractée et bourgeon apical) est utilisée en infusion contre les irritations de l'estomac, la constipation et les « maladies féminines ».
+La sève est utilisée en interne comme anti-poison (contre l'Aconit) et pour apaiser la gueule-de-bois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Usages et aspects culturels</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie interne de la pseudo-tige est comestible (après épluchage des gaines foliaires), elle peut-être bouillie ou mise en pickles dans du vinaigre. La pseudo-tige peut être coupée en tranches et séchée pour la conservation. Elle contient, tout comme les rhizomes, de l'amidon et peut être utilisée pour la confection de vin (usage rare).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Usages et aspects culturels</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fourrage</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est utilisée comme fourrage pour les porcs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Usages et aspects culturels</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Technologie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fibres de la nervure centrale des feuilles sont utilisées pour tresser des cordes, des ceintures et pour confectionner des chaises.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Usages et aspects culturels</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Plante ornementale</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appréciée comme plante d'ornement elle est commercialisée et donc potentiellement présente un peu partout dans le monde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Musella_lasiocarpa</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Usages et aspects culturels</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Aspects religieux</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du fait de la ressemblance de la fleur au lotus et de sa longue durée de floraison, la plante serait sacrée pour les moines bouddhistes de la région du Yunnan ainsi que pour les ethnies Dai et Bulang.
 </t>
         </is>
       </c>
